--- a/Data_frame/balancos_definitivos/BRPR3.xlsx
+++ b/Data_frame/balancos_definitivos/BRPR3.xlsx
@@ -11892,28 +11892,30 @@
         <v>21842</v>
       </c>
       <c r="F57" t="n">
+        <v>23451</v>
+      </c>
+      <c r="G57" t="n">
         <v>25347</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>26398</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>30438</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>35491</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
         <v>46198</v>
       </c>
-      <c r="L57" t="n">
+      <c r="M57" t="n">
         <v>47778</v>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>58462</v>
       </c>
-      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -11984,28 +11986,30 @@
         <v>-2657</v>
       </c>
       <c r="F58" t="n">
+        <v>-2936</v>
+      </c>
+      <c r="G58" t="n">
         <v>-2878</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>-1859</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>-3157</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>-3502</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
         <v>-4598</v>
       </c>
-      <c r="L58" t="n">
+      <c r="M58" t="n">
         <v>-4348</v>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>-4773</v>
       </c>
-      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -12076,32 +12080,32 @@
         <v>19185</v>
       </c>
       <c r="F59" t="n">
+        <v>20515</v>
+      </c>
+      <c r="G59" t="n">
         <v>22469</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>24539</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>27281</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>31989</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
         <v>41600</v>
       </c>
-      <c r="L59" t="n">
+      <c r="M59" t="n">
         <v>43430</v>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>53689</v>
       </c>
-      <c r="N59" t="n">
+      <c r="O59" t="n">
         <v>65745</v>
-      </c>
-      <c r="O59" t="n">
-        <v>77777</v>
       </c>
       <c r="P59" t="n">
         <v>77777</v>
@@ -12230,28 +12234,28 @@
         <v>78616</v>
       </c>
       <c r="BF59" t="n">
+        <v>83498</v>
+      </c>
+      <c r="BG59" t="n">
         <v>81867.984</v>
       </c>
-      <c r="BG59" t="n">
+      <c r="BH59" t="n">
         <v>83090</v>
       </c>
-      <c r="BH59" t="n">
+      <c r="BI59" t="n">
         <v>98044</v>
       </c>
-      <c r="BI59" t="n">
+      <c r="BJ59" t="n">
         <v>84830</v>
       </c>
-      <c r="BJ59" t="n">
+      <c r="BK59" t="n">
         <v>31559.008</v>
       </c>
-      <c r="BK59" t="n">
+      <c r="BL59" t="n">
         <v>31074</v>
       </c>
-      <c r="BL59" t="n">
+      <c r="BM59" t="n">
         <v>10981</v>
-      </c>
-      <c r="BM59" t="n">
-        <v>13951</v>
       </c>
       <c r="BN59" t="n">
         <v>13951</v>
@@ -12274,32 +12278,32 @@
         <v>-3011</v>
       </c>
       <c r="F60" t="n">
+        <v>-4512</v>
+      </c>
+      <c r="G60" t="n">
         <v>-3981</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>-4115</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>-4121</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>-4112</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
         <v>-4878</v>
       </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
       <c r="M60" t="n">
         <v>0</v>
       </c>
       <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
         <v>4878</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -12472,32 +12476,32 @@
         <v>16174</v>
       </c>
       <c r="F61" t="n">
+        <v>16003</v>
+      </c>
+      <c r="G61" t="n">
         <v>18488</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>20424</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>23160</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>27877</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
         <v>36722</v>
       </c>
-      <c r="L61" t="n">
+      <c r="M61" t="n">
         <v>43430</v>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>53689</v>
       </c>
-      <c r="N61" t="n">
+      <c r="O61" t="n">
         <v>70623</v>
-      </c>
-      <c r="O61" t="n">
-        <v>77777</v>
       </c>
       <c r="P61" t="n">
         <v>77777</v>
@@ -12626,28 +12630,28 @@
         <v>78616</v>
       </c>
       <c r="BF61" t="n">
+        <v>83498</v>
+      </c>
+      <c r="BG61" t="n">
         <v>81867.984</v>
       </c>
-      <c r="BG61" t="n">
+      <c r="BH61" t="n">
         <v>83090</v>
       </c>
-      <c r="BH61" t="n">
+      <c r="BI61" t="n">
         <v>98044</v>
       </c>
-      <c r="BI61" t="n">
+      <c r="BJ61" t="n">
         <v>84830</v>
       </c>
-      <c r="BJ61" t="n">
+      <c r="BK61" t="n">
         <v>31559.008</v>
       </c>
-      <c r="BK61" t="n">
+      <c r="BL61" t="n">
         <v>31074</v>
       </c>
-      <c r="BL61" t="n">
+      <c r="BM61" t="n">
         <v>10981</v>
-      </c>
-      <c r="BM61" t="n">
-        <v>13951</v>
       </c>
       <c r="BN61" t="n">
         <v>13951</v>
@@ -12681,10 +12685,10 @@
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>0</v>
       </c>
@@ -12868,32 +12872,32 @@
         <v>-3954</v>
       </c>
       <c r="F63" t="n">
+        <v>-4165</v>
+      </c>
+      <c r="G63" t="n">
         <v>-4284</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>-7471</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>-4071</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>-5883</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
         <v>-7510</v>
       </c>
-      <c r="L63" t="n">
+      <c r="M63" t="n">
         <v>-8036</v>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>-9680</v>
       </c>
-      <c r="N63" t="n">
+      <c r="O63" t="n">
         <v>-11151</v>
-      </c>
-      <c r="O63" t="n">
-        <v>-10578</v>
       </c>
       <c r="P63" t="n">
         <v>-10578</v>
@@ -13022,28 +13026,28 @@
         <v>-25868</v>
       </c>
       <c r="BF63" t="n">
+        <v>-28177</v>
+      </c>
+      <c r="BG63" t="n">
         <v>-30663</v>
       </c>
-      <c r="BG63" t="n">
+      <c r="BH63" t="n">
         <v>-30980</v>
       </c>
-      <c r="BH63" t="n">
+      <c r="BI63" t="n">
         <v>-31958</v>
       </c>
-      <c r="BI63" t="n">
+      <c r="BJ63" t="n">
         <v>-46416</v>
       </c>
-      <c r="BJ63" t="n">
+      <c r="BK63" t="n">
         <v>-27585.008</v>
       </c>
-      <c r="BK63" t="n">
+      <c r="BL63" t="n">
         <v>-19002</v>
       </c>
-      <c r="BL63" t="n">
+      <c r="BM63" t="n">
         <v>-19223</v>
-      </c>
-      <c r="BM63" t="n">
-        <v>-16730</v>
       </c>
       <c r="BN63" t="n">
         <v>-16730</v>
@@ -13068,9 +13072,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
         <v>0</v>
       </c>
@@ -13248,26 +13250,26 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>205</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
         <v>116</v>
       </c>
-      <c r="L65" t="n">
+      <c r="M65" t="n">
         <v>3345</v>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>-10188</v>
       </c>
-      <c r="N65" t="n">
+      <c r="O65" t="n">
         <v>1046810.944</v>
-      </c>
-      <c r="O65" t="n">
-        <v>-1520</v>
       </c>
       <c r="P65" t="n">
         <v>-1520</v>
@@ -13396,28 +13398,28 @@
         <v>51314</v>
       </c>
       <c r="BF65" t="n">
+        <v>4284</v>
+      </c>
+      <c r="BG65" t="n">
         <v>-55598</v>
       </c>
-      <c r="BG65" t="n">
+      <c r="BH65" t="n">
         <v>1909</v>
       </c>
-      <c r="BH65" t="n">
-        <v>0</v>
-      </c>
       <c r="BI65" t="n">
         <v>0</v>
       </c>
       <c r="BJ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK65" t="n">
         <v>-1909</v>
       </c>
-      <c r="BK65" t="n">
-        <v>0</v>
-      </c>
       <c r="BL65" t="n">
         <v>0</v>
       </c>
       <c r="BM65" t="n">
-        <v>1555</v>
+        <v>0</v>
       </c>
       <c r="BN65" t="n">
         <v>1555</v>
@@ -13443,29 +13445,29 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
         <v>-1613</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
         <v>-205</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
         <v>-1</v>
       </c>
-      <c r="L66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
       <c r="N66" t="n">
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>-97</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
         <v>-97</v>
@@ -13594,28 +13596,28 @@
         <v>0</v>
       </c>
       <c r="BF66" t="n">
+        <v>-8148</v>
+      </c>
+      <c r="BG66" t="n">
         <v>-13745</v>
       </c>
-      <c r="BG66" t="n">
-        <v>0</v>
-      </c>
       <c r="BH66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI66" t="n">
         <v>-1918130.048</v>
       </c>
-      <c r="BI66" t="n">
+      <c r="BJ66" t="n">
         <v>-31758</v>
       </c>
-      <c r="BJ66" t="n">
+      <c r="BK66" t="n">
         <v>-162469.968</v>
       </c>
-      <c r="BK66" t="n">
+      <c r="BL66" t="n">
         <v>-119484</v>
       </c>
-      <c r="BL66" t="n">
+      <c r="BM66" t="n">
         <v>-15244</v>
-      </c>
-      <c r="BM66" t="n">
-        <v>-2007</v>
       </c>
       <c r="BN66" t="n">
         <v>-2007</v>
@@ -13649,10 +13651,10 @@
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>0</v>
       </c>
@@ -13836,32 +13838,32 @@
         <v>-10006</v>
       </c>
       <c r="F68" t="n">
+        <v>-11385</v>
+      </c>
+      <c r="G68" t="n">
         <v>-13236</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>-14880</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>-11305</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>-10462</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
         <v>-14379</v>
       </c>
-      <c r="L68" t="n">
+      <c r="M68" t="n">
         <v>-10842</v>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>-22728</v>
       </c>
-      <c r="N68" t="n">
+      <c r="O68" t="n">
         <v>-27723</v>
-      </c>
-      <c r="O68" t="n">
-        <v>-40733</v>
       </c>
       <c r="P68" t="n">
         <v>-40733</v>
@@ -13990,28 +13992,28 @@
         <v>-28468</v>
       </c>
       <c r="BF68" t="n">
+        <v>-38023</v>
+      </c>
+      <c r="BG68" t="n">
         <v>-46036</v>
       </c>
-      <c r="BG68" t="n">
+      <c r="BH68" t="n">
         <v>-54865</v>
       </c>
-      <c r="BH68" t="n">
+      <c r="BI68" t="n">
         <v>-63059</v>
       </c>
-      <c r="BI68" t="n">
+      <c r="BJ68" t="n">
         <v>18379</v>
       </c>
-      <c r="BJ68" t="n">
+      <c r="BK68" t="n">
         <v>53638</v>
       </c>
-      <c r="BK68" t="n">
+      <c r="BL68" t="n">
         <v>37735</v>
       </c>
-      <c r="BL68" t="n">
+      <c r="BM68" t="n">
         <v>19454</v>
-      </c>
-      <c r="BM68" t="n">
-        <v>14947</v>
       </c>
       <c r="BN68" t="n">
         <v>14947</v>
@@ -14034,32 +14036,32 @@
         <v>6096</v>
       </c>
       <c r="F69" t="n">
+        <v>5371</v>
+      </c>
+      <c r="G69" t="n">
         <v>5345</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>6404</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>4590</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>4146</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
         <v>5781</v>
       </c>
-      <c r="L69" t="n">
+      <c r="M69" t="n">
         <v>11910</v>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>22625</v>
       </c>
-      <c r="N69" t="n">
+      <c r="O69" t="n">
         <v>45565</v>
-      </c>
-      <c r="O69" t="n">
-        <v>62701</v>
       </c>
       <c r="P69" t="n">
         <v>62701</v>
@@ -14188,28 +14190,28 @@
         <v>9805</v>
       </c>
       <c r="BF69" t="n">
+        <v>16479</v>
+      </c>
+      <c r="BG69" t="n">
         <v>24907</v>
       </c>
-      <c r="BG69" t="n">
+      <c r="BH69" t="n">
         <v>31266</v>
       </c>
-      <c r="BH69" t="n">
+      <c r="BI69" t="n">
         <v>33181</v>
       </c>
-      <c r="BI69" t="n">
+      <c r="BJ69" t="n">
         <v>72553</v>
       </c>
-      <c r="BJ69" t="n">
+      <c r="BK69" t="n">
         <v>55520</v>
       </c>
-      <c r="BK69" t="n">
+      <c r="BL69" t="n">
         <v>39311</v>
       </c>
-      <c r="BL69" t="n">
+      <c r="BM69" t="n">
         <v>67982</v>
-      </c>
-      <c r="BM69" t="n">
-        <v>33121</v>
       </c>
       <c r="BN69" t="n">
         <v>33121</v>
@@ -14232,32 +14234,32 @@
         <v>-16102</v>
       </c>
       <c r="F70" t="n">
+        <v>-16756</v>
+      </c>
+      <c r="G70" t="n">
         <v>-18581</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>-21284</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>-15895</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>-14608</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
         <v>-20160</v>
       </c>
-      <c r="L70" t="n">
+      <c r="M70" t="n">
         <v>-22752</v>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>-45353</v>
       </c>
-      <c r="N70" t="n">
+      <c r="O70" t="n">
         <v>-73287.992</v>
-      </c>
-      <c r="O70" t="n">
-        <v>-103434</v>
       </c>
       <c r="P70" t="n">
         <v>-103434</v>
@@ -14386,28 +14388,28 @@
         <v>-38273</v>
       </c>
       <c r="BF70" t="n">
+        <v>-54502</v>
+      </c>
+      <c r="BG70" t="n">
         <v>-70943.008</v>
       </c>
-      <c r="BG70" t="n">
+      <c r="BH70" t="n">
         <v>-86131</v>
       </c>
-      <c r="BH70" t="n">
+      <c r="BI70" t="n">
         <v>-96240</v>
       </c>
-      <c r="BI70" t="n">
+      <c r="BJ70" t="n">
         <v>-54174</v>
       </c>
-      <c r="BJ70" t="n">
+      <c r="BK70" t="n">
         <v>-1882.008</v>
       </c>
-      <c r="BK70" t="n">
+      <c r="BL70" t="n">
         <v>-1576</v>
       </c>
-      <c r="BL70" t="n">
+      <c r="BM70" t="n">
         <v>-48528</v>
-      </c>
-      <c r="BM70" t="n">
-        <v>-18174</v>
       </c>
       <c r="BN70" t="n">
         <v>-18174</v>
@@ -14430,28 +14432,30 @@
         <v>116</v>
       </c>
       <c r="F71" t="n">
+        <v>83</v>
+      </c>
+      <c r="G71" t="n">
         <v>297</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>-496</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
       </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
@@ -14525,25 +14529,27 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
         <v>-116</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>0</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
       </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
@@ -14625,17 +14631,19 @@
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
@@ -14706,32 +14714,32 @@
         <v>2330</v>
       </c>
       <c r="F74" t="n">
+        <v>536</v>
+      </c>
+      <c r="G74" t="n">
         <v>1265</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>-4036</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>7989</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>11327</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
         <v>14948</v>
       </c>
-      <c r="L74" t="n">
+      <c r="M74" t="n">
         <v>27898</v>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>11093</v>
       </c>
-      <c r="N74" t="n">
+      <c r="O74" t="n">
         <v>1078560</v>
-      </c>
-      <c r="O74" t="n">
-        <v>24849</v>
       </c>
       <c r="P74" t="n">
         <v>24849</v>
@@ -14860,28 +14868,28 @@
         <v>75594</v>
       </c>
       <c r="BF74" t="n">
+        <v>13434</v>
+      </c>
+      <c r="BG74" t="n">
         <v>-64174</v>
       </c>
-      <c r="BG74" t="n">
+      <c r="BH74" t="n">
         <v>-846</v>
       </c>
-      <c r="BH74" t="n">
+      <c r="BI74" t="n">
         <v>-1915102.976</v>
       </c>
-      <c r="BI74" t="n">
+      <c r="BJ74" t="n">
         <v>25035</v>
       </c>
-      <c r="BJ74" t="n">
+      <c r="BK74" t="n">
         <v>-106767.048</v>
       </c>
-      <c r="BK74" t="n">
+      <c r="BL74" t="n">
         <v>-69677</v>
       </c>
-      <c r="BL74" t="n">
+      <c r="BM74" t="n">
         <v>-4032</v>
-      </c>
-      <c r="BM74" t="n">
-        <v>11716</v>
       </c>
       <c r="BN74" t="n">
         <v>11716</v>
@@ -14904,32 +14912,32 @@
         <v>-993</v>
       </c>
       <c r="F75" t="n">
+        <v>-874</v>
+      </c>
+      <c r="G75" t="n">
         <v>-650</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>843</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>-973</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>-790</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
         <v>-3240</v>
       </c>
-      <c r="L75" t="n">
+      <c r="M75" t="n">
         <v>-221</v>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>-4582</v>
       </c>
-      <c r="N75" t="n">
+      <c r="O75" t="n">
         <v>8043</v>
-      </c>
-      <c r="O75" t="n">
-        <v>-7270</v>
       </c>
       <c r="P75" t="n">
         <v>-7270</v>
@@ -15058,28 +15066,28 @@
         <v>-457</v>
       </c>
       <c r="BF75" t="n">
+        <v>-8160</v>
+      </c>
+      <c r="BG75" t="n">
         <v>7142</v>
       </c>
-      <c r="BG75" t="n">
+      <c r="BH75" t="n">
         <v>-514</v>
       </c>
-      <c r="BH75" t="n">
+      <c r="BI75" t="n">
         <v>-549</v>
       </c>
-      <c r="BI75" t="n">
+      <c r="BJ75" t="n">
         <v>-423156</v>
       </c>
-      <c r="BJ75" t="n">
+      <c r="BK75" t="n">
         <v>-7521.992</v>
       </c>
-      <c r="BK75" t="n">
+      <c r="BL75" t="n">
         <v>-101928</v>
       </c>
-      <c r="BL75" t="n">
+      <c r="BM75" t="n">
         <v>5209</v>
-      </c>
-      <c r="BM75" t="n">
-        <v>-890</v>
       </c>
       <c r="BN75" t="n">
         <v>-890</v>
@@ -15113,21 +15121,21 @@
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
         <v>51</v>
       </c>
-      <c r="L76" t="n">
+      <c r="M76" t="n">
         <v>-473</v>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>-2246</v>
       </c>
-      <c r="N76" t="n">
+      <c r="O76" t="n">
         <v>2668</v>
-      </c>
-      <c r="O76" t="n">
-        <v>4777</v>
       </c>
       <c r="P76" t="n">
         <v>4777</v>
@@ -15256,28 +15264,28 @@
         <v>-47371</v>
       </c>
       <c r="BF76" t="n">
+        <v>32984</v>
+      </c>
+      <c r="BG76" t="n">
         <v>9598</v>
       </c>
-      <c r="BG76" t="n">
+      <c r="BH76" t="n">
         <v>-29352</v>
       </c>
-      <c r="BH76" t="n">
+      <c r="BI76" t="n">
         <v>443188.992</v>
       </c>
-      <c r="BI76" t="n">
+      <c r="BJ76" t="n">
         <v>448550.016</v>
       </c>
-      <c r="BJ76" t="n">
+      <c r="BK76" t="n">
         <v>43795.008</v>
       </c>
-      <c r="BK76" t="n">
+      <c r="BL76" t="n">
         <v>127883</v>
       </c>
-      <c r="BL76" t="n">
+      <c r="BM76" t="n">
         <v>-3567</v>
-      </c>
-      <c r="BM76" t="n">
-        <v>-2780</v>
       </c>
       <c r="BN76" t="n">
         <v>-2780</v>
@@ -15311,17 +15319,19 @@
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>0</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
       </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
@@ -15403,17 +15413,19 @@
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>0</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
       </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
@@ -15495,10 +15507,10 @@
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>0</v>
       </c>
@@ -15656,10 +15668,10 @@
         <v>0</v>
       </c>
       <c r="BL79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM79" t="n">
         <v>2390</v>
-      </c>
-      <c r="BM79" t="n">
-        <v>0</v>
       </c>
       <c r="BN79" t="n">
         <v>0</v>
@@ -15682,32 +15694,32 @@
         <v>1337</v>
       </c>
       <c r="F80" t="n">
+        <v>-338</v>
+      </c>
+      <c r="G80" t="n">
         <v>615</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>-3193</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>7016</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>10537</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
         <v>11759</v>
       </c>
-      <c r="L80" t="n">
+      <c r="M80" t="n">
         <v>27204</v>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>4265</v>
       </c>
-      <c r="N80" t="n">
+      <c r="O80" t="n">
         <v>770140.032</v>
-      </c>
-      <c r="O80" t="n">
-        <v>22356</v>
       </c>
       <c r="P80" t="n">
         <v>22356</v>
@@ -15836,28 +15848,28 @@
         <v>27766</v>
       </c>
       <c r="BF80" t="n">
+        <v>38258</v>
+      </c>
+      <c r="BG80" t="n">
         <v>-47434</v>
       </c>
-      <c r="BG80" t="n">
+      <c r="BH80" t="n">
         <v>-30712</v>
       </c>
-      <c r="BH80" t="n">
+      <c r="BI80" t="n">
         <v>-1472462.976</v>
       </c>
-      <c r="BI80" t="n">
+      <c r="BJ80" t="n">
         <v>50429</v>
       </c>
-      <c r="BJ80" t="n">
+      <c r="BK80" t="n">
         <v>-70493.96000000001</v>
       </c>
-      <c r="BK80" t="n">
+      <c r="BL80" t="n">
         <v>-43722</v>
       </c>
-      <c r="BL80" t="n">
-        <v>0</v>
-      </c>
       <c r="BM80" t="n">
-        <v>8046</v>
+        <v>0</v>
       </c>
       <c r="BN80" t="n">
         <v>8046</v>
